--- a/gantt-chart-template.xlsx
+++ b/gantt-chart-template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1420BD51-F3D5-4348-949C-D18EB0B412B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4168D-2E35-4538-86D6-0F4EB7A242F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="11520" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Question 2" sheetId="11" r:id="rId1"/>
+    <sheet name="Template" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Display_Week">'Question 2'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Question 2'!$3:$7</definedName>
-    <definedName name="Project_Start">'Question 2'!#REF!</definedName>
-    <definedName name="task_end" localSheetId="0">'Question 2'!#REF!</definedName>
-    <definedName name="task_progress" localSheetId="0">'Question 2'!#REF!</definedName>
-    <definedName name="task_start" localSheetId="0">'Question 2'!#REF!</definedName>
+    <definedName name="Display_Week">Template!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Template!$3:$7</definedName>
+    <definedName name="Project_Start">Template!#REF!</definedName>
+    <definedName name="task_end" localSheetId="0">Template!#REF!</definedName>
+    <definedName name="task_progress" localSheetId="0">Template!#REF!</definedName>
+    <definedName name="task_start" localSheetId="0">Template!#REF!</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -292,15 +292,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,6 +309,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1040,89 +1040,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="75" width="2.77734375" style="7" customWidth="1"/>
-    <col min="76" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="2.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="75" width="2.77734375" style="4" customWidth="1"/>
+    <col min="76" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="5"/>
-      <c r="BU1" s="8"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="5"/>
     </row>
     <row r="2" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1407,543 +1407,543 @@
       </c>
     </row>
     <row r="3" spans="1:73" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="11"/>
-      <c r="BR3" s="11"/>
-      <c r="BS3" s="11"/>
-      <c r="BT3" s="11"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
     </row>
     <row r="4" spans="1:73" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="11"/>
-      <c r="BR4" s="11"/>
-      <c r="BS4" s="11"/>
-      <c r="BT4" s="11"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
     </row>
     <row r="5" spans="1:73" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="11"/>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="11"/>
-      <c r="BH5" s="11"/>
-      <c r="BI5" s="11"/>
-      <c r="BJ5" s="11"/>
-      <c r="BK5" s="11"/>
-      <c r="BL5" s="11"/>
-      <c r="BM5" s="11"/>
-      <c r="BN5" s="11"/>
-      <c r="BO5" s="11"/>
-      <c r="BP5" s="11"/>
-      <c r="BQ5" s="11"/>
-      <c r="BR5" s="11"/>
-      <c r="BS5" s="11"/>
-      <c r="BT5" s="11"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
     </row>
     <row r="6" spans="1:73" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="11"/>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="11"/>
-      <c r="BJ6" s="11"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="11"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="8"/>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="8"/>
+      <c r="BR6" s="8"/>
+      <c r="BS6" s="8"/>
+      <c r="BT6" s="8"/>
     </row>
     <row r="7" spans="1:73" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="11"/>
-      <c r="BN7" s="11"/>
-      <c r="BO7" s="11"/>
-      <c r="BP7" s="11"/>
-      <c r="BQ7" s="11"/>
-      <c r="BR7" s="11"/>
-      <c r="BS7" s="11"/>
-      <c r="BT7" s="11"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="8"/>
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="8"/>
+      <c r="BO7" s="8"/>
+      <c r="BP7" s="8"/>
+      <c r="BQ7" s="8"/>
+      <c r="BR7" s="8"/>
+      <c r="BS7" s="8"/>
+      <c r="BT7" s="8"/>
     </row>
     <row r="8" spans="1:73" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="11"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
-      <c r="BK8" s="11"/>
-      <c r="BL8" s="11"/>
-      <c r="BM8" s="11"/>
-      <c r="BN8" s="11"/>
-      <c r="BO8" s="11"/>
-      <c r="BP8" s="11"/>
-      <c r="BQ8" s="11"/>
-      <c r="BR8" s="11"/>
-      <c r="BS8" s="11"/>
-      <c r="BT8" s="11"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="8"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="8"/>
+      <c r="BO8" s="8"/>
+      <c r="BP8" s="8"/>
+      <c r="BQ8" s="8"/>
+      <c r="BR8" s="8"/>
+      <c r="BS8" s="8"/>
+      <c r="BT8" s="8"/>
     </row>
     <row r="9" spans="1:73" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
-      <c r="AU9" s="11"/>
-      <c r="AV9" s="11"/>
-      <c r="AW9" s="11"/>
-      <c r="AX9" s="11"/>
-      <c r="AY9" s="11"/>
-      <c r="AZ9" s="11"/>
-      <c r="BA9" s="11"/>
-      <c r="BB9" s="11"/>
-      <c r="BC9" s="11"/>
-      <c r="BD9" s="11"/>
-      <c r="BE9" s="11"/>
-      <c r="BF9" s="11"/>
-      <c r="BG9" s="11"/>
-      <c r="BH9" s="11"/>
-      <c r="BI9" s="11"/>
-      <c r="BJ9" s="11"/>
-      <c r="BK9" s="11"/>
-      <c r="BL9" s="11"/>
-      <c r="BM9" s="11"/>
-      <c r="BN9" s="11"/>
-      <c r="BO9" s="11"/>
-      <c r="BP9" s="11"/>
-      <c r="BQ9" s="11"/>
-      <c r="BR9" s="11"/>
-      <c r="BS9" s="11"/>
-      <c r="BT9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="8"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="8"/>
+      <c r="BO9" s="8"/>
+      <c r="BP9" s="8"/>
+      <c r="BQ9" s="8"/>
+      <c r="BR9" s="8"/>
+      <c r="BS9" s="8"/>
+      <c r="BT9" s="8"/>
     </row>
     <row r="10" spans="1:73" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:73" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:73" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:73" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:73" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:73" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>0</v>
       </c>
     </row>
